--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3737.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3737.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3737</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bradley-John Watling</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3162</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -543,7 +608,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>20/08/2010</t>
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3168</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3342</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3345</t>
+          <t>3345</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1267,7 +1331,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -1275,7 +1338,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1327,7 +1390,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1535,7 +1598,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1587,7 +1650,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,7 +1702,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1691,7 +1754,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1743,7 +1806,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1795,7 +1858,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1847,7 +1910,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1887,7 +1950,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1895,7 +1957,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1926,6 +1988,565 @@
       <c r="J29" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3345</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3422</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.58%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3424</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.69%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3427</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.06%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.00%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3447</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.06%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3448</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.53%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3466</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3469</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3476</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3479</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3737.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3737.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3737.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3737.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -608,6 +607,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>20/08/2010</t>
@@ -1331,6 +1331,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -1950,6 +1951,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1988,565 +1990,6 @@
       <c r="J29" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3345</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3422</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>31.58%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3424</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.69%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3427</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16.06%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3446</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.00%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3447</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>51.06%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3448</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3449</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3464</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.53%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3466</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3469</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3476</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3477</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3479</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.54%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3954</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.38%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3955</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3966</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3967</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.49%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3968</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
